--- a/biology/Zoologie/Liste_d'insectes_endémiques_de_France/Liste_d'insectes_endémiques_de_France.xlsx
+++ b/biology/Zoologie/Liste_d'insectes_endémiques_de_France/Liste_d'insectes_endémiques_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27insectes_end%C3%A9miques_de_France</t>
+          <t>Liste_d'insectes_endémiques_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une espèce biologique est dite endémique d'une zone géographique lorsqu'elle n'existe que dans cette zone à l'état spontané.
 Cet article liste les espèces d'insectes endémiques de France : départements métropolitains (dont la Corse), départements d'outre-mer (Guadeloupe, Martinique, Guyane et Réunion) et collectivités d'outre-mer à statut proche du statut départemental (Saint-Pierre-et-Miquelon, Mayotte, Saint-Martin et Saint-Barthélemy), mais n'inclut pas les anciens territoires d'outre-mer de Wallis-et-Futuna (collectivité territoriale), de la Polynésie française et de la Nouvelle-Calédonie (pays d'outre-mer) et des îles Éparses, de l'île de Clipperton et des Terres australes et antarctiques françaises (districts d'outre-mer). 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27insectes_end%C3%A9miques_de_France</t>
+          <t>Liste_d'insectes_endémiques_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Entomobryidés
-Pseudosinella tyrrhena (Corse)</t>
+          <t>Entomobryidés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pseudosinella tyrrhena (Corse)</t>
         </is>
       </c>
     </row>
@@ -525,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27insectes_end%C3%A9miques_de_France</t>
+          <t>Liste_d'insectes_endémiques_de_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nicolétiidés
-Coletinia jeanneli (Var)</t>
+          <t>Nicolétiidés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Coletinia jeanneli (Var)</t>
         </is>
       </c>
     </row>
@@ -556,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27insectes_end%C3%A9miques_de_France</t>
+          <t>Liste_d'insectes_endémiques_de_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +598,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blattes
-Blattellidés
-Ectobius corsorum (Corse)
-Mantes
-Mantidés
-Pseudoyersinia brevipennis</t>
+          <t>Blattes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Blattellidés</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ectobius corsorum (Corse)</t>
         </is>
       </c>
     </row>
@@ -591,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27insectes_end%C3%A9miques_de_France</t>
+          <t>Liste_d'insectes_endémiques_de_France</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +633,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Coléoptères</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Dictyoptères</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mantidés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pseudoyersinia brevipennis</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -617,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27insectes_end%C3%A9miques_de_France</t>
+          <t>Liste_d'insectes_endémiques_de_France</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -632,10 +669,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dermaptères (forficules)</t>
+          <t>Coléoptères</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -643,7 +682,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_d%27insectes_end%C3%A9miques_de_France</t>
+          <t>Liste_d'insectes_endémiques_de_France</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -658,14 +697,50 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Dermaptères (forficules)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Diptères</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Nématocères
-Culicidés, tribu Culicini
-Culex (Melanoconion) dolichophyllus Clastrier, 1970 (Guyane)
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nématocères</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Culicidés, tribu Culicini</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Culex (Melanoconion) dolichophyllus Clastrier, 1970 (Guyane)
 Culex (Aedinus) guyanensis Clastrier, 1970 (Guyane)
 Culex (Melanoconion) patientiae Floch &amp; Fauran, 1955 (Guyane)
 Culex (Culex) prosecutor Séguy, 1927(Guyane)
@@ -674,11 +749,87 @@
 Culex (Microculex) reginae Floch &amp; Fauran (Guyane)
 Culex (Melanoconion) tournieri Senevet &amp; Abonnenc, 1939 (Guyane)
 Culex (Melanoconion) trisetosus Fauran, 1961  (Guyane)
-Culex (Melanoconion) vidali Floch &amp; Fauran, 1954 (Guyane)
-Thaumaléidés
-Thaumalea provincialis
-Tipulidés (tipules)
-Tipula brolemanni
+Culex (Melanoconion) vidali Floch &amp; Fauran, 1954 (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Diptères</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nématocères</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Thaumaléidés</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Thaumalea provincialis</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Diptères</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nématocères</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tipulidés (tipules)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tipula brolemanni
 Tipula cayollensis (Alpes-Maritimes ; décrite en 2003)
 Tipula gomina (Alpes-Maritimes ; décrite en 2003)
 Tipula roya (Alpes-Maritimes ; décrite en 2003)
@@ -686,129 +837,592 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_d%27insectes_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Hémiptères</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Hétéroptères
-Miridés
-Orthocephalus championi (Corse)
-Homoptères
-Cicadidés (cigales)
-Cicadetta fangoana (Corse)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Liste_d%27insectes_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Hétéroptères</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Miridés</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Orthocephalus championi (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hémiptères</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Homoptères</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Cicadidés (cigales)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cicadetta fangoana (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Hyménoptères</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Apidés
-Bombus (Asthonipsithyrus) perezi (Corse)
-Eulophidés
-Aprostocetus cebennicus
-Eurytomidés
-Eurytoma cebennica
-Ichneumonidés
-Ichneumon arvernicus
-Tenthrédinidés
-Endelomya filipendulae
-Xyélidés
-Xyela lugdunensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Liste_d%27insectes_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Apidés</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Bombus (Asthonipsithyrus) perezi (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Hyménoptères</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Eulophidés</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Aprostocetus cebennicus</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Hyménoptères</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Eurytomidés</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Eurytoma cebennica</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Hyménoptères</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ichneumonidés</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Ichneumon arvernicus</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Hyménoptères</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tenthrédinidés</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Endelomya filipendulae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Hyménoptères</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Xyélidés</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Xyela lugdunensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Lépidoptères</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Castniidés
-Castnia pinchoni (Martinique)
-Cimeliidés
-Timie corse (Axia napoleona) (Corse)
-Geometridés
-Cidarie de Wehrli (Colostygia cyrnea) (Corse)
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Castniidés</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Castnia pinchoni (Martinique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cimeliidés</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Timie corse (Axia napoleona) (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Geometridés</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Cidarie de Wehrli (Colostygia cyrnea) (Corse)
 Dyscia royaria (vallée de la Roya, Alpes-Maritimes)
 Mélanippe corse (Epirrhoe timozzaria) (Corse)
 Pareulype casearia (Corse)
 Ortholite retranchée (Scotopteryx obvallaria) (Corse)
-Triphosa petronata (Corse)
-Hesperiidés
-Pyrrhopyge creusae (Bell, 1931)
-Lasiocampidés
-Bombyx de Coluche (Poecilocampa coluchei) (Alpes-Maritimes et Alpes-de-Haute-Provence)
-Lycaenidés
-Bleu-nacré de Corse (Lysandra coridon nufrellensis)  (Corse)
-Nolidés
-Nola dresnayi (Alpes-de-Haute-Provence et Hautes-Alpes)
-Nymphalidés
-Antirrhea ornata Butler, 1870 (Guyane)
+Triphosa petronata (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Hesperiidés</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Pyrrhopyge creusae (Bell, 1931)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Lasiocampidés</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Bombyx de Coluche (Poecilocampa coluchei) (Alpes-Maritimes et Alpes-de-Haute-Provence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Lycaenidés</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Bleu-nacré de Corse (Lysandra coridon nufrellensis)  (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Nolidés</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Nola dresnayi (Alpes-de-Haute-Provence et Hautes-Alpes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Nymphalidés</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Antirrhea ornata Butler, 1870 (Guyane)
 Caeruleuptychia twalela Brévignon, 2005 (Guyane)
 Charaxes saperanus (Mayotte)
 Dynamine laugieri (Oberthür, 1916) (Guyane)
@@ -824,15 +1438,117 @@
 Pareuptychia hervei (Brévignon, 2005) (Guyane)
 Philaethria andrei Brévignon, 2002 (Guyane)
 Taygetis oyapock Brévignon 2007 (Guyane)
-Taygetis zippora Butler, 1869 (Guyane)
-Piéridés
-Enantia aloikea Brévignon, 1993 (Guyane)
-Papilionidés
-Papilio phorbanta phorbanta Linné, 1771 (Réunion)
+Taygetis zippora Butler, 1869 (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Piéridés</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Enantia aloikea Brévignon, 1993 (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Papilionidés</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Papilio phorbanta phorbanta Linné, 1771 (Réunion)
 Parides coelus (Boisduval, 1836) (Guyane)
-Philaethria andrei Brévignon, 2002 (Guyane)
-Riodinidés
-Adelotypa wia Brévignon &amp; Gallard, 1992 (Guyane)
+Philaethria andrei Brévignon, 2002 (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Riodinidés</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Adelotypa wia Brévignon &amp; Gallard, 1992 (Guyane)
 Anteros aurigans Brévignon &amp; Gallard, 1999 (Guyane)
 Argyrogrammana chicomendesi Gallard, 1995 (Guyane)
 Argyrogrammana denisi Gallard, 1995 (Guyane)
@@ -851,7 +1567,7 @@
 Euselasia fayneli  Gallard, 2006 (Guyane)
 Euselasia inini Brévignon, 1996 (Guyane)
 Euselasia manoa Brévignon, 1996 (Guyane)
-Euselasia phedica (Boisduval, [1836]) (Guyane)
+Euselasia phedica (Boisduval, ) (Guyane)
 Euselasia rubrocilia Lathy, 1926 (Guyane)
 Euselasia saulina Brévignon, 1996 (Guyane)
 Euselasia waponaka Brévignon (Guyane)
@@ -899,117 +1615,336 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Liste_d%27insectes_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Névroptères</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Hémérobiidés
-Wesmaelius martinae (Pyrénées-Orientales)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Liste_d%27insectes_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Hémérobiidés</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Wesmaelius martinae (Pyrénées-Orientales)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Orthoptères</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Acrididés (criquets)
-Œdipode de Bonifacio (Acrotylus braudi) (Corse, espèce décrite en 2005)
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Acrididés (criquets)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Œdipode de Bonifacio (Acrotylus braudi) (Corse, espèce décrite en 2005)
 Gomphocère pyrénéen (Gomphoceridius brevipennis) (Pyrénées)
-Miramelle des frimas (Podisma amedegnatoae) (Mont Ventoux) - Espèce décrite en 2007[1].
-Bradyporidés
-Éphippigère provençale (Ephippiger provincialis)
-Uromenus (Steropleurus) chopardi (Corse)
-Catantopidés
-Caloptène languedocien (Paracaloptenus bolivari) (Pyrénées)
-Pamphagidae
-Criquet rhodanien (Prionotropis rhodanica)
-Rhaphidophoridés
-Dolichopoda bormansi (Corse)
-Dolichopoda (Dolichopoda) chopardi (Alpes)
-Tettigoniidés (sauterelles)
-Antaxius (Chopardius) sorrezensis
+Miramelle des frimas (Podisma amedegnatoae) (Mont Ventoux) - Espèce décrite en 2007.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Orthoptères</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Bradyporidés</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Éphippigère provençale (Ephippiger provincialis)
+Uromenus (Steropleurus) chopardi (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Orthoptères</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Catantopidés</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Caloptène languedocien (Paracaloptenus bolivari) (Pyrénées)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Orthoptères</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Pamphagidae</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Criquet rhodanien (Prionotropis rhodanica)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Orthoptères</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Rhaphidophoridés</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Dolichopoda bormansi (Corse)
+Dolichopoda (Dolichopoda) chopardi (Alpes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Orthoptères</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tettigoniidés (sauterelles)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Antaxius (Chopardius) sorrezensis
 Antaxius (Cyrnantaxius) bouvieri (Corse)
 Metrioptera (Metrioptera) buyssoni
 Parnassiana vicheti
 Decticelle de Bonfils (Rhacocleis bonfilsi) (Corse)
-Decticelle varoise (Rhacocleis poneli) (Alpes), espèce décrite en 1987[2].</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Liste_d%27insectes_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+Decticelle varoise (Rhacocleis poneli) (Alpes), espèce décrite en 1987.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>Phasmatodea (phasmes)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Hétéronémiidés
-Pseudobacteria donskoffi (Guadeloupe), décrit en 1998
-Phasmatidés
-Apterograeffea reunionensis (Réunion), décrit en 2002
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Hétéronémiidés</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Pseudobacteria donskoffi (Guadeloupe), décrit en 1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Phasmatodea (phasmes)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Phasmatidés</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Apterograeffea reunionensis (Réunion), décrit en 2002
 Hesperophasma pavisae (Guadeloupe), décrit en 1998
 Lamponius guerini (Guadeloupe)
 Lamponius lethargicus (Guadeloupe), décrit en 1998
@@ -1017,74 +1952,220 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Liste_d%27insectes_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>Plécoptères</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Leuctridés
-Leuctra cyrnea</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Liste_d%27insectes_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Leuctridés</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Leuctra cyrnea</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>Trichoptères</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Glossonématidés
-Synagapetus arvernensis (Massif central)
-Hydropsychidés
-Hydropsyche cyrnotica (Corse)
-Philopotamidés
-Wormaldia artillac
-Wormaldia gardensis (Gard)
-Polycentropidés
-Polycentropus corsicus (Corse)
-Rhyacophilidés
-Rhyacophila arties</t>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Glossonématidés</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Synagapetus arvernensis (Massif central)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Trichoptères</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Hydropsychidés</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Hydropsyche cyrnotica (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Trichoptères</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Philopotamidés</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Wormaldia artillac
+Wormaldia gardensis (Gard)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Trichoptères</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Polycentropidés</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Polycentropus corsicus (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_d'insectes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27insectes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Trichoptères</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Rhyacophilidés</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Rhyacophila arties</t>
         </is>
       </c>
     </row>
